--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -2793,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z10"/>
+  <dimension ref="A2:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3001,12 +3001,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240614-16</t>
+          <t>20240626-8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>26.06.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3036,17 +3036,19 @@
           <t>Контракт ГК 4455</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>2888</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Маяк</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -3074,19 +3076,23 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>01.07.2024</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240617-1</t>
+          <t>20240627-3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17.06.2024</t>
+          <t>27.06.2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3116,17 +3122,19 @@
           <t>Контракт ГК 4455</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>2888</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Элерон</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -3154,19 +3162,23 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240617-2</t>
+          <t>20240709-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17.06.2024</t>
+          <t>09.07.2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3185,7 +3197,11 @@
           <t>РД</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>АР</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -3196,17 +3212,19 @@
           <t>Контракт ГК 4455</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>2888</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Маяк</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -3228,319 +3246,19 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>09.07.2024</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20240618-1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18.06.2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Контракт ГК 3366</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>2888</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Туников</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20240619-1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>2888</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20240619-5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Не указан</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2888</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20240619-7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Не указан</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2888</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -2793,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z6"/>
+  <dimension ref="A2:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3001,12 +3001,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240626-8</t>
+          <t>20240704-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26.06.2024</t>
+          <t>04.07.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3025,7 +3025,11 @@
           <t>РД</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -3033,7 +3037,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Контракт ГК 4455</t>
+          <t>Контракт ГК 3366</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3043,7 +3047,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -3053,7 +3057,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Евгеньев</t>
+          <t>Туников</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3076,189 +3080,9 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>01.07.2024</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20240627-3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>27.06.2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0304</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Элерон</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>27.06.2024</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20240709-1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>09.07.2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>АР</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>09.07.2024</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -3001,12 +3001,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240704-1</t>
+          <t>20240716-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04.07.2024</t>
+          <t>16.07.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3080,7 +3080,11 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>16.07.2024</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
     </row>

--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -2793,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z4"/>
+  <dimension ref="A2:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3001,12 +3001,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240716-1</t>
+          <t>20240614-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16.07.2024</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3025,11 +3025,7 @@
           <t>РД</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -3037,7 +3033,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Контракт ГК 3366</t>
+          <t>Контракт ГК 4455</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3047,7 +3043,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -3057,7 +3053,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Туников</t>
+          <t>Евгеньев</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3080,13 +3076,1251 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>16.07.2024</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20240617-1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20240617-2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>23</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20240618-1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18.06.2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Контракт ГК 3366</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Туников</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20240619-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19.06.2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20240619-5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>19.06.2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20240619-7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19.06.2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20240619-8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>19.06.2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Контракт ГК 3366</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Туников</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>08.07.2024</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20240620-3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20.06.2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Элерон</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20240620-6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20.06.2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>08.07.2024</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20240621-1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21.06.2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Контракт ГК 3366</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Туников</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>08.07.2024</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20240624-1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24.06.2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Контракт ГК 9878</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>08.07.2024</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20240626-8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26.06.2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>01.07.2024</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20240627-3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Элерон</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20240709-1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09.07.2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>АР</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>09.07.2024</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20240716-1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16.07.2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Контракт ГК 3366</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Туников</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>16.07.2024</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -2793,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z19"/>
+  <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -4059,12 +4059,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240627-3</t>
+          <t>20240626-38</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27.06.2024</t>
+          <t>26.06.2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0304</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Элерон</t>
+          <t>Маяк</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -4136,7 +4136,7 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>27.06.2024</t>
+          <t>26.07.2024</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
@@ -4145,35 +4145,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240709-1</t>
+          <t>20240626-50</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09.07.2024</t>
+          <t>26.06.2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
+          <t>24-00538</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>РД</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>АР</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -4213,7 +4205,7 @@
         <v>6564</v>
       </c>
       <c r="P18" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -4226,7 +4218,7 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr">
         <is>
-          <t>09.07.2024</t>
+          <t>26.07.2024</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr"/>
@@ -4235,35 +4227,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240716-1</t>
+          <t>20240626-51</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16.07.2024</t>
+          <t>26.06.2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
+          <t>024-00538</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>РД</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -4271,7 +4255,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Контракт ГК 3366</t>
+          <t>Контракт ГК 4455</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4281,7 +4265,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4291,7 +4275,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Туников</t>
+          <t>Евгеньев</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4303,7 +4287,7 @@
         <v>6564</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -4316,11 +4300,629 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>16.07.2024</t>
+          <t>26.07.2024</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20240627-3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Элерон</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20240628-1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>28.06.2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>26.07.2024</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20240709-1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09.07.2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>АР</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>09.07.2024</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20240716-1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.07.2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Контракт ГК 3366</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Туников</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>16.07.2024</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20240724-1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>26.07.2024</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20240724-2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24.07.2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Э18-05989</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>И8</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Контракт ГК 4455</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>26.07.2024</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20240729-3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>29.07.2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23131</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>РД</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>УАСП</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Контракт ГК 9878</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Маяк</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Евгеньев</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Москвин</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>6564</v>
+      </c>
+      <c r="P26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>32</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>29.07.2024</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/print_service_app/xlsx/export_dispatcher.xlsx
+++ b/print_service_app/xlsx/export_dispatcher.xlsx
@@ -2793,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3001,12 +3001,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240614-16</t>
+          <t>20240724-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>24.07.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3025,7 +3025,11 @@
           <t>РД</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>КЖ</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>УАСП</t>
@@ -3033,7 +3037,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Контракт ГК 4455</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3076,1853 +3080,13 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>26.07.2024</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20240617-1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>17.06.2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20240617-2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>17.06.2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>23</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20240618-1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18.06.2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Контракт ГК 3366</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Туников</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20240619-1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20240619-5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20240619-7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20240619-8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>19.06.2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Контракт ГК 3366</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Туников</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P11" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>08.07.2024</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20240620-3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20.06.2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0304</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Элерон</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>20240620-6</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>20.06.2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>08.07.2024</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>20240621-1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>21.06.2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Контракт ГК 3366</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Туников</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>08.07.2024</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>20240624-1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>24.06.2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Контракт ГК 9878</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>08.07.2024</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20240626-8</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>26.06.2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>01.07.2024</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20240626-38</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>26.06.2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20240626-50</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>26.06.2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>24-00538</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20240626-51</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>26.06.2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>024-00538</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P19" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20240627-3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>27.06.2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0304</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Элерон</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P20" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>27.06.2024</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20240628-1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>28.06.2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20240709-1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>09.07.2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>АР</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>09.07.2024</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20240716-1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>16.07.2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Контракт ГК 3366</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Туников</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>16.07.2024</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20240724-1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>24.07.2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P24" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20240724-2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>24.07.2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Э18-05989</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>И8</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Контракт ГК 4455</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P25" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20240729-3</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>29.07.2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>23131</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>РД</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>КЖ</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>УАСП</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Контракт ГК 9878</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0301</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Маяк</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Евгеньев</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Москвин</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>6564</v>
-      </c>
-      <c r="P26" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>32</v>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>29.07.2024</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="22">
